--- a/pred_ohlcv/54_21/2019-10-19 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LTC ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-263.6464316</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-264.0835316</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-256.6586316</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-254.9610316</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>64.99036839999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>0.4324683999999945</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>9.963768399999994</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>66.0043684</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>65.68646840000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>388.7948684</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>384.1683684</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>346.6559684</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-833.2908728099999</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-867.2985728099999</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-116.3924728099998</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LTC ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-263.6464316</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-264.0835316</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-256.6586316</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-254.9610316</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>64.99036839999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2.509131600000003</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>75.54506839999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>66.0597684</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>37.76156839999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>29.04386839999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>6.223568399999994</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3.248468399999994</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>0.4324683999999945</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>9.963768399999994</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>66.0043684</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>65.68646840000001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>120.3093684</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>156.0641684</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>145.8776684</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>145.8776684</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>125.5487684</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>127.6377684</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>138.0089684</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>121.4238684</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>140.7724684</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>146.2853684</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>394.2566684</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>388.7948684</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>384.1683684</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>346.6559684</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>35.80826840000002</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>26.10066840000002</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-88.42636427999994</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-88.81106427999994</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-79.08106530999994</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-95.86146530999994</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-81.65286530999994</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-110.1528653099999</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-93.19886530999995</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-92.79676530999994</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-103.8192653099999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-103.8192653099999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-101.9707728099999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-107.7828728099999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-203.6169728099999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-203.6169728099999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-309.6715728099999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-867.2985728099999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-787.1426728099999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-687.1536728099999</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-116.3924728099998</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
